--- a/Portfolio/Test Results/Antennas/Antenne tijdstippen.xlsx
+++ b/Portfolio/Test Results/Antennas/Antenne tijdstippen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>starttijd</t>
   </si>
@@ -291,13 +291,7 @@
     <t>Angle</t>
   </si>
   <si>
-    <t>1 meter zonder antennes</t>
-  </si>
-  <si>
     <t>5 meter zonder antenne</t>
-  </si>
-  <si>
-    <t>1m met antenne</t>
   </si>
   <si>
     <t>2 atennes (5m)</t>
@@ -358,324 +352,6 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="4"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11434411353313309"/>
-          <c:y val="2.8727034120734907E-2"/>
-          <c:w val="0.87978541297517587"/>
-          <c:h val="0.82727981918926807"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Blad2!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1m</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:plus>
-              <c:numLit>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numLit>
-            </c:plus>
-            <c:minus>
-              <c:numLit>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numLit>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>Blad2!$B$4:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>340</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Blad2!$D$4:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>-52.896799999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-53.253283302063792</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-43.558441558441558</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-41.102941176470587</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-53.253283302063792</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-41.060422960725077</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-43.284883720930232</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-44.850187265917604</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-47.742547425474257</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-52.990291262135919</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-58.133152173913047</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-53.029032258064518</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-51.615141955835959</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-50.815151515151513</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-52.326704545454547</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-58.784511784511785</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-56.773743016759774</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-56.228412256267411</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="74199424"/>
-        <c:axId val="74202112"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="74199424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="t"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="nl-BE"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Angle (°)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.90751483885980144"/>
-              <c:y val="0.92592592592592582"/>
-            </c:manualLayout>
-          </c:layout>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="nl-BE"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="74202112"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="74202112"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="wordArtVert"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="nl-BE"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-BE"/>
-                  <a:t>RSSI(dBm)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="nl-BE"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="74199424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
   <c:style val="1"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
@@ -686,9 +362,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11434410711827069"/>
-          <c:y val="4.2615923009623795E-2"/>
-          <c:w val="0.87978541297517654"/>
-          <c:h val="0.8272798191892683"/>
+          <c:y val="4.2615923009623809E-2"/>
+          <c:w val="0.87978541297517687"/>
+          <c:h val="0.82727981918926841"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1230,11 +906,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77435648"/>
-        <c:axId val="77437568"/>
+        <c:axId val="75825920"/>
+        <c:axId val="75827840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77435648"/>
+        <c:axId val="75825920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1260,21 +936,21 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.90751483885980144"/>
-              <c:y val="0.9259259259259256"/>
+              <c:y val="0.92592592592592549"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77437568"/>
+        <c:crossAx val="75827840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77437568"/>
+        <c:axId val="75827840"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1283,7 +959,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1300,7 +976,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77435648"/>
+        <c:crossAx val="75825920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1312,9 +988,655 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.89276779567671749"/>
-          <c:y val="0.45794947506561684"/>
+          <c:y val="0.4579494750656169"/>
           <c:w val="9.4117788792509996E-2"/>
-          <c:h val="0.1674343832020998"/>
+          <c:h val="0.16743438320209986"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10814109183532976"/>
+          <c:y val="2.8252405949256338E-2"/>
+          <c:w val="0.87962119647528669"/>
+          <c:h val="0.84627296587926437"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5m</c:v>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Blad2!$E$67:$E$84</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="18"/>
+                  <c:pt idx="0">
+                    <c:v>0.88109999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.95099999999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.87880000000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.92249999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.163</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2475000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.0065999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.99919999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.89300000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.51259999999999994</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.82620000000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.93630000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.80640000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.87780000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.82569999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.86040000000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.88200000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.66500000000000004</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Blad2!$E$67:$E$84</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="18"/>
+                  <c:pt idx="0">
+                    <c:v>0.88109999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.95099999999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.87880000000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.92249999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.163</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2475000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.0065999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.99919999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.89300000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.51259999999999994</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.82620000000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.93630000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.80640000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.87780000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.82569999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.86040000000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.88200000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.66500000000000004</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad2!$B$4:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$D$67:$D$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-50.398699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-50.3217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-52.514899999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-50.345799999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-48.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-49.877400000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-50.246899999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-48.247900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-47.584899999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-46.820799999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-47.439300000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-47.704300000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-50.839599999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-51.756999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-51.1509</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-50.551400000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-50.448599999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-50.783499999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1m</c:v>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Blad2!$E$45:$E$62</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="18"/>
+                  <c:pt idx="0">
+                    <c:v>0.21110000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.20660000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.26540000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.2311</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.32819999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.1933</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.44740000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.32300000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.32819999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9.7100000000000006E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.21210000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.44159999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.25869999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.19059999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Blad2!$E$45:$E$62</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="18"/>
+                  <c:pt idx="0">
+                    <c:v>0.21110000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.20660000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.26540000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.2311</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.32819999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.1933</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.44740000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.32300000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.32819999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9.7100000000000006E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.21210000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.44159999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.25869999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.19059999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad2!$B$4:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$D$45:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-31.046299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-31.0442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-31.075500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-32.056100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-32.878500000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-32.018700000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-32.7273</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-32.117100000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-31.878499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-31.009399999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-31.046700000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-31.261700000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-31.071400000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-31.037400000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="75921664"/>
+        <c:axId val="75936128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="75921664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Angle (°)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.90797518243150255"/>
+              <c:y val="0.92592592592592549"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75936128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75936128"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>RSSI(dBm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75921664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85813472394327439"/>
+          <c:y val="0.51350503062117281"/>
+          <c:w val="9.4117788792509996E-2"/>
+          <c:h val="0.16743438320209986"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -1328,1051 +1650,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10814109183532976"/>
-          <c:y val="2.8252405949256338E-2"/>
-          <c:w val="0.87962119647528592"/>
-          <c:h val="0.84627296587926482"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Blad2!$B$4:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>340</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Blad2!$D$45:$D$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>-31.046299999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-31.0442</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-31.075500000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-32.056100000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-32.878500000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-32.018700000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-32.7273</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-32.117100000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-31.878499999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-31.009399999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-31.046700000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-31.261700000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-31.071400000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-31.037400000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-31</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-31</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-31</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="77450240"/>
-        <c:axId val="77473280"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="77450240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="t"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="nl-BE"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-BE"/>
-                  <a:t>Angle</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="nl-BE" baseline="0"/>
-                  <a:t> (°)</a:t>
-                </a:r>
-                <a:endParaRPr lang="nl-BE"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.90797518243150221"/>
-              <c:y val="0.92592592592592582"/>
-            </c:manualLayout>
-          </c:layout>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="nl-BE"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="77473280"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="77473280"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="wordArtVert"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="nl-BE"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-BE"/>
-                  <a:t>RSSI(dBm)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="nl-BE"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="77450240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10814109183532976"/>
-          <c:y val="2.8252405949256338E-2"/>
-          <c:w val="0.87962119647528636"/>
-          <c:h val="0.84627296587926448"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>5m</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Blad2!$E$67:$E$84</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="18"/>
-                  <c:pt idx="0">
-                    <c:v>0.88109999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.95099999999999996</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.87880000000000003</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.92249999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.163</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.2475000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.0065999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.99919999999999998</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.89300000000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.51259999999999994</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0.82620000000000005</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.93630000000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0.80640000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0.87780000000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0.82569999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0.86040000000000005</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0.88200000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0.66500000000000004</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Blad2!$E$67:$E$84</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="18"/>
-                  <c:pt idx="0">
-                    <c:v>0.88109999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.95099999999999996</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.87880000000000003</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.92249999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.163</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.2475000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1.0065999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.99919999999999998</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.89300000000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.51259999999999994</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0.82620000000000005</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.93630000000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0.80640000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0.87780000000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0.82569999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0.86040000000000005</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0.88200000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0.66500000000000004</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>Blad2!$B$4:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>340</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Blad2!$D$67:$D$84</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>-50.398699999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-50.3217</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-52.514899999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-50.345799999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-48.875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-49.877400000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-50.246899999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-48.247900000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-47.584899999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-46.820799999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-47.439300000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-47.704300000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-50.839599999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-51.756999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-51.1509</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-50.551400000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-50.448599999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-50.783499999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>1m</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Blad2!$E$45:$E$62</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="18"/>
-                  <c:pt idx="0">
-                    <c:v>0.21110000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.20660000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.26540000000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.2311</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.32819999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.1933</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.44740000000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.32300000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.32819999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>9.7100000000000006E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0.21210000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.44159999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0.25869999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0.19059999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Blad2!$E$45:$E$62</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="18"/>
-                  <c:pt idx="0">
-                    <c:v>0.21110000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.20660000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.26540000000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.2311</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.32819999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.1933</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.44740000000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.32300000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.32819999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>9.7100000000000006E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0.21210000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.44159999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0.25869999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0.19059999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>Blad2!$B$4:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>340</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Blad2!$D$45:$D$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>-31.046299999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-31.0442</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-31.075500000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-32.056100000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-32.878500000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-32.018700000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-32.7273</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-32.117100000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-31.878499999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-31.009399999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-31.046700000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-31.261700000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-31.071400000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-31.037400000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-31</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-31</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-31</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="77505664"/>
-        <c:axId val="77507968"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="77505664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="t"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="nl-BE"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-BE"/>
-                  <a:t>Angle</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="nl-BE" baseline="0"/>
-                  <a:t> (°)</a:t>
-                </a:r>
-                <a:endParaRPr lang="nl-BE"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.90797518243150244"/>
-              <c:y val="0.9259259259259256"/>
-            </c:manualLayout>
-          </c:layout>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="nl-BE"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="77507968"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="77507968"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="wordArtVert"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="nl-BE"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-BE"/>
-                  <a:t>RSSI(dBm)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="nl-BE"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="77505664"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.85813472394327428"/>
-          <c:y val="0.51350503062117259"/>
-          <c:w val="9.4117788792509996E-2"/>
-          <c:h val="0.1674343832020998"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="nl-BE"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafiek 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -2397,7 +1676,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2405,46 +1684,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>343049</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Grafiek 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>343050</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>114450</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2457,7 +1706,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4337,7 +3586,7 @@
         <v>89</v>
       </c>
       <c r="G115" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4394,10 +3643,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:I84"/>
+  <dimension ref="B3:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="S71" sqref="S71"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56:K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4405,20 +3654,15 @@
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="I2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4">
         <v>0</v>
       </c>
@@ -4429,7 +3673,7 @@
         <v>0.55795995590550118</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:5">
       <c r="B5">
         <v>20</v>
       </c>
@@ -4440,7 +3684,7 @@
         <v>0.99887789884811262</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:5">
       <c r="B6">
         <v>40</v>
       </c>
@@ -4451,7 +3695,7 @@
         <v>0.50812925153172572</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:5">
       <c r="B7">
         <v>60</v>
       </c>
@@ -4462,7 +3706,7 @@
         <v>0.30430000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:5">
       <c r="B8">
         <v>80</v>
       </c>
@@ -4473,7 +3717,7 @@
         <v>0.99887789884811262</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:5">
       <c r="B9">
         <v>100</v>
       </c>
@@ -4484,7 +3728,7 @@
         <v>0.2386295517873715</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:5">
       <c r="B10">
         <v>120</v>
       </c>
@@ -4495,7 +3739,7 @@
         <v>1.5575279390433208</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:5">
       <c r="B11">
         <v>140</v>
       </c>
@@ -4506,7 +3750,7 @@
         <v>2.4844573028908421</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:5">
       <c r="B12">
         <v>160</v>
       </c>
@@ -4517,7 +3761,7 @@
         <v>0.70429969345921217</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:5">
       <c r="B13">
         <v>180</v>
       </c>
@@ -4528,7 +3772,7 @@
         <v>1.3326212741605752</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:5">
       <c r="B14">
         <v>200</v>
       </c>
@@ -4539,7 +3783,7 @@
         <v>2.5681318518307541</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:5">
       <c r="B15">
         <v>220</v>
       </c>
@@ -4550,7 +3794,7 @@
         <v>0.88266056631733525</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:5">
       <c r="B16">
         <v>240</v>
       </c>
@@ -4618,7 +3862,7 @@
     </row>
     <row r="23" spans="2:9">
       <c r="I23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -4690,7 +3934,7 @@
         <v>2.5642</v>
       </c>
     </row>
-    <row r="33" spans="4:9">
+    <row r="33" spans="4:5">
       <c r="D33">
         <v>-58.246400000000001</v>
       </c>
@@ -4698,7 +3942,7 @@
         <v>2.6850000000000001</v>
       </c>
     </row>
-    <row r="34" spans="4:9">
+    <row r="34" spans="4:5">
       <c r="D34">
         <v>-73.2</v>
       </c>
@@ -4706,7 +3950,7 @@
         <v>1.2806999999999999</v>
       </c>
     </row>
-    <row r="35" spans="4:9">
+    <row r="35" spans="4:5">
       <c r="D35">
         <v>-64.475099999999998</v>
       </c>
@@ -4714,7 +3958,7 @@
         <v>5.0494000000000003</v>
       </c>
     </row>
-    <row r="36" spans="4:9">
+    <row r="36" spans="4:5">
       <c r="D36">
         <v>-61.8217</v>
       </c>
@@ -4722,7 +3966,7 @@
         <v>3.3849999999999998</v>
       </c>
     </row>
-    <row r="37" spans="4:9">
+    <row r="37" spans="4:5">
       <c r="D37">
         <v>-59.915799999999997</v>
       </c>
@@ -4730,7 +3974,7 @@
         <v>0.36570000000000003</v>
       </c>
     </row>
-    <row r="38" spans="4:9">
+    <row r="38" spans="4:5">
       <c r="D38">
         <v>-54.734200000000001</v>
       </c>
@@ -4738,7 +3982,7 @@
         <v>0.62150000000000005</v>
       </c>
     </row>
-    <row r="39" spans="4:9">
+    <row r="39" spans="4:5">
       <c r="D39">
         <v>-57.624200000000002</v>
       </c>
@@ -4746,7 +3990,7 @@
         <v>2.8923999999999999</v>
       </c>
     </row>
-    <row r="40" spans="4:9">
+    <row r="40" spans="4:5">
       <c r="D40">
         <v>-55.5762</v>
       </c>
@@ -4754,7 +3998,7 @@
         <v>0.53139999999999998</v>
       </c>
     </row>
-    <row r="41" spans="4:9">
+    <row r="41" spans="4:5">
       <c r="D41">
         <v>-57.016100000000002</v>
       </c>
@@ -4762,7 +4006,7 @@
         <v>0.29320000000000002</v>
       </c>
     </row>
-    <row r="42" spans="4:9">
+    <row r="42" spans="4:5">
       <c r="D42">
         <v>-61.725900000000003</v>
       </c>
@@ -4770,12 +4014,7 @@
         <v>0.59209999999999996</v>
       </c>
     </row>
-    <row r="44" spans="4:9">
-      <c r="I44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="4:9">
+    <row r="45" spans="4:5">
       <c r="D45">
         <v>-31.046299999999999</v>
       </c>
@@ -4783,7 +4022,7 @@
         <v>0.21110000000000001</v>
       </c>
     </row>
-    <row r="46" spans="4:9">
+    <row r="46" spans="4:5">
       <c r="D46">
         <v>-31.0442</v>
       </c>
@@ -4791,7 +4030,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="47" spans="4:9">
+    <row r="47" spans="4:5">
       <c r="D47">
         <v>-31.075500000000002</v>
       </c>
@@ -4799,7 +4038,7 @@
         <v>0.26540000000000002</v>
       </c>
     </row>
-    <row r="48" spans="4:9">
+    <row r="48" spans="4:5">
       <c r="D48">
         <v>-32.056100000000001</v>
       </c>
@@ -4921,7 +4160,7 @@
     </row>
     <row r="66" spans="4:8">
       <c r="H66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="4:8">
